--- a/Employee_Reports21/Edwin Balakid Tegli Q0157.xlsx
+++ b/Employee_Reports21/Edwin Balakid Tegli Q0157.xlsx
@@ -550,11 +550,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -694,11 +694,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -740,11 +740,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -776,11 +776,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -822,11 +822,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
